--- a/Code/Results/Cases/Case_1_90/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_90/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.590060302558</v>
+        <v>14.67714804971649</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.896097274535623</v>
+        <v>3.564411215264732</v>
       </c>
       <c r="E2">
-        <v>26.83686002592396</v>
+        <v>21.99485615319196</v>
       </c>
       <c r="F2">
-        <v>33.12216427750099</v>
+        <v>26.03181424364242</v>
       </c>
       <c r="G2">
-        <v>51.17214234591165</v>
+        <v>34.32052207884342</v>
       </c>
       <c r="H2">
-        <v>13.06749669621543</v>
+        <v>13.97939580066629</v>
       </c>
       <c r="I2">
-        <v>13.69339367764659</v>
+        <v>23.98181680477459</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.753802776879803</v>
+        <v>9.626826924212519</v>
       </c>
       <c r="M2">
-        <v>12.88968761844975</v>
+        <v>14.85035265206367</v>
       </c>
       <c r="N2">
-        <v>13.50373473176433</v>
+        <v>18.63355544373744</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.65167933924486</v>
+        <v>14.4205579541273</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.93815060606838</v>
+        <v>3.585436484294257</v>
       </c>
       <c r="E3">
-        <v>25.48736653993171</v>
+        <v>21.50245760165358</v>
       </c>
       <c r="F3">
-        <v>30.84371091341586</v>
+        <v>25.45776901868672</v>
       </c>
       <c r="G3">
-        <v>47.49769344554259</v>
+        <v>33.10597213900947</v>
       </c>
       <c r="H3">
-        <v>12.38397682666407</v>
+        <v>13.88530575374864</v>
       </c>
       <c r="I3">
-        <v>14.1636336742034</v>
+        <v>24.14141469297891</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.107578671634085</v>
+        <v>9.517564374321589</v>
       </c>
       <c r="M3">
-        <v>12.10507455097828</v>
+        <v>14.73288718484196</v>
       </c>
       <c r="N3">
-        <v>13.55850241836739</v>
+        <v>18.66667591949177</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.04869572458389</v>
+        <v>14.26293407330604</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1.967006065271018</v>
+        <v>3.599136223565167</v>
       </c>
       <c r="E4">
-        <v>24.62818394456157</v>
+        <v>21.19193451841554</v>
       </c>
       <c r="F4">
-        <v>29.4614754354358</v>
+        <v>25.10914029813316</v>
       </c>
       <c r="G4">
-        <v>45.1545718368772</v>
+        <v>32.35184039402914</v>
       </c>
       <c r="H4">
-        <v>11.96102054431198</v>
+        <v>13.83176848321417</v>
       </c>
       <c r="I4">
-        <v>14.45956518243542</v>
+        <v>24.24422785080581</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.690060471326696</v>
+        <v>9.451725828301702</v>
       </c>
       <c r="M4">
-        <v>11.7049315851198</v>
+        <v>14.66264586337133</v>
       </c>
       <c r="N4">
-        <v>13.5964406765186</v>
+        <v>18.68915693536854</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.79637119766592</v>
+        <v>14.19876283830352</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1.97944826779785</v>
+        <v>3.604917202213941</v>
       </c>
       <c r="E5">
-        <v>24.2704811980601</v>
+        <v>21.06344111101905</v>
       </c>
       <c r="F5">
-        <v>28.88818788855372</v>
+        <v>24.96826872432398</v>
       </c>
       <c r="G5">
-        <v>44.19963071594445</v>
+        <v>32.04299286122564</v>
       </c>
       <c r="H5">
-        <v>11.78799881968146</v>
+        <v>13.81103386781345</v>
       </c>
       <c r="I5">
-        <v>14.58202055510151</v>
+        <v>24.28734038328838</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.514660251037679</v>
+        <v>9.425237976121394</v>
       </c>
       <c r="M5">
-        <v>11.53906073790164</v>
+        <v>14.63451998932385</v>
       </c>
       <c r="N5">
-        <v>13.61297075496911</v>
+        <v>18.69885858003892</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.75407892769328</v>
+        <v>14.18811337404117</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1.981553449587612</v>
+        <v>3.605889088541452</v>
       </c>
       <c r="E6">
-        <v>24.21063162489921</v>
+        <v>21.04199016302699</v>
       </c>
       <c r="F6">
-        <v>28.79239793522162</v>
+        <v>24.94495625618017</v>
       </c>
       <c r="G6">
-        <v>44.03983989917234</v>
+        <v>31.99163411798916</v>
       </c>
       <c r="H6">
-        <v>11.75923407672318</v>
+        <v>13.80765673527283</v>
       </c>
       <c r="I6">
-        <v>14.6024680038071</v>
+        <v>24.29457269151644</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.485216467024244</v>
+        <v>9.420861136994764</v>
       </c>
       <c r="M6">
-        <v>11.51135428734754</v>
+        <v>14.62988049022835</v>
       </c>
       <c r="N6">
-        <v>13.61577978055867</v>
+        <v>18.70050220434124</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.04531931253798</v>
+        <v>14.26206827964193</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1.967171195109193</v>
+        <v>3.599213385884497</v>
       </c>
       <c r="E7">
-        <v>24.62339033497262</v>
+        <v>21.19020937284005</v>
       </c>
       <c r="F7">
-        <v>29.45378404895925</v>
+        <v>25.10723529804362</v>
       </c>
       <c r="G7">
-        <v>45.14177530452613</v>
+        <v>32.34768057895551</v>
       </c>
       <c r="H7">
-        <v>11.9586895587265</v>
+        <v>13.83148444553928</v>
       </c>
       <c r="I7">
-        <v>14.46120905866614</v>
+        <v>24.24480435610602</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.687716305320095</v>
+        <v>9.451367183377206</v>
       </c>
       <c r="M7">
-        <v>11.7027057039225</v>
+        <v>14.66226449972178</v>
       </c>
       <c r="N7">
-        <v>13.59665929304837</v>
+        <v>18.68928558546616</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.27214260883275</v>
+        <v>14.58873988393457</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.909915710012117</v>
+        <v>3.571496448864896</v>
       </c>
       <c r="E8">
-        <v>26.37795259539832</v>
+        <v>21.82683850977338</v>
       </c>
       <c r="F8">
-        <v>32.3183242562635</v>
+        <v>25.83322579322299</v>
       </c>
       <c r="G8">
-        <v>49.9232554645676</v>
+        <v>33.90382034464381</v>
       </c>
       <c r="H8">
-        <v>12.832580500321</v>
+        <v>13.94608583437634</v>
       </c>
       <c r="I8">
-        <v>13.85406797159358</v>
+        <v>24.03584797557832</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.535258575772046</v>
+        <v>9.588910806094683</v>
       </c>
       <c r="M8">
-        <v>12.60555440709545</v>
+        <v>14.80947472792392</v>
       </c>
       <c r="N8">
-        <v>13.52171539844563</v>
+        <v>18.64453086573225</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.46103981081741</v>
+        <v>15.22524992806816</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.993795933669527</v>
+        <v>3.523434668454282</v>
       </c>
       <c r="E9">
-        <v>29.57411619187217</v>
+        <v>23.00594521577864</v>
       </c>
       <c r="F9">
-        <v>37.91226163744813</v>
+        <v>27.27728792100064</v>
       </c>
       <c r="G9">
-        <v>58.61926403940356</v>
+        <v>36.86570156089288</v>
       </c>
       <c r="H9">
-        <v>14.59443075035627</v>
+        <v>14.20354939510641</v>
       </c>
       <c r="I9">
-        <v>12.71831003051022</v>
+        <v>23.66416548309616</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.03523875912725</v>
+        <v>9.867297648084158</v>
       </c>
       <c r="M9">
-        <v>14.55023064948622</v>
+        <v>15.11197979878792</v>
       </c>
       <c r="N9">
-        <v>13.40959951936045</v>
+        <v>18.57373803279007</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.05644960323037</v>
+        <v>15.68587768091406</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.199483397116017</v>
+        <v>3.49199006615908</v>
       </c>
       <c r="E10">
-        <v>31.77532578418911</v>
+        <v>23.82460970414975</v>
       </c>
       <c r="F10">
-        <v>41.76795543072794</v>
+        <v>28.33763819945642</v>
       </c>
       <c r="G10">
-        <v>64.62028249804507</v>
+        <v>38.95945525753248</v>
       </c>
       <c r="H10">
-        <v>16.07435026097053</v>
+        <v>14.41136823211733</v>
       </c>
       <c r="I10">
-        <v>11.91409680340825</v>
+        <v>23.41407936594046</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.04258153411572</v>
+        <v>10.07541837877805</v>
       </c>
       <c r="M10">
-        <v>15.84837821013414</v>
+        <v>15.34112515466744</v>
       </c>
       <c r="N10">
-        <v>13.34937447976521</v>
+        <v>18.53200838153947</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.74926033637415</v>
+        <v>15.89300093449207</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.293149683838763</v>
+        <v>3.478532114400577</v>
       </c>
       <c r="E11">
-        <v>32.74651380352517</v>
+        <v>24.18569444438903</v>
       </c>
       <c r="F11">
-        <v>43.47235679322429</v>
+        <v>28.81729983696272</v>
       </c>
       <c r="G11">
-        <v>67.27502454730286</v>
+        <v>39.88916478503279</v>
       </c>
       <c r="H11">
-        <v>16.72992077795878</v>
+        <v>14.50965211245478</v>
       </c>
       <c r="I11">
-        <v>11.55413806084799</v>
+        <v>23.30525256332878</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.48138113283142</v>
+        <v>10.17051655236447</v>
       </c>
       <c r="M11">
-        <v>16.41165448345739</v>
+        <v>15.44653092193184</v>
       </c>
       <c r="N11">
-        <v>13.32698016533677</v>
+        <v>18.51524329869608</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.00648449922556</v>
+        <v>15.97101418605263</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.328706250418269</v>
+        <v>3.473558353039623</v>
       </c>
       <c r="E12">
-        <v>33.11017003201606</v>
+        <v>24.32072297198254</v>
       </c>
       <c r="F12">
-        <v>44.11122455444919</v>
+        <v>28.99834659091529</v>
       </c>
       <c r="G12">
-        <v>68.2704412314576</v>
+        <v>40.23760098312565</v>
       </c>
       <c r="H12">
-        <v>16.97585219832389</v>
+        <v>14.54738019868714</v>
       </c>
       <c r="I12">
-        <v>11.41862876271739</v>
+        <v>23.26474930735136</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.6448526296441</v>
+        <v>10.20655863722761</v>
       </c>
       <c r="M12">
-        <v>16.62113624090296</v>
+        <v>15.48658448096738</v>
       </c>
       <c r="N12">
-        <v>13.31923503403878</v>
+        <v>18.50921257804604</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.95131309274682</v>
+        <v>15.95423241673411</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.32104333684513</v>
+        <v>3.474624081822396</v>
       </c>
       <c r="E13">
-        <v>33.0320286623358</v>
+        <v>24.29171921872858</v>
       </c>
       <c r="F13">
-        <v>43.97391399671399</v>
+        <v>28.9593843030359</v>
       </c>
       <c r="G13">
-        <v>68.05648300360168</v>
+        <v>40.16272540306161</v>
       </c>
       <c r="H13">
-        <v>16.92298561492218</v>
+        <v>14.53923255922707</v>
       </c>
       <c r="I13">
-        <v>11.44777823094291</v>
+        <v>23.27344100867624</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.60976405219325</v>
+        <v>10.19879545250162</v>
       </c>
       <c r="M13">
-        <v>16.57618868201226</v>
+        <v>15.47795252520961</v>
       </c>
       <c r="N13">
-        <v>13.32087014738721</v>
+        <v>18.51049728250796</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.77052450646488</v>
+        <v>15.89942794533792</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.296072735235612</v>
+        <v>3.478120460967675</v>
       </c>
       <c r="E14">
-        <v>32.77651287664696</v>
+        <v>24.19683794174504</v>
       </c>
       <c r="F14">
-        <v>43.52504444783769</v>
+        <v>28.83220761892281</v>
       </c>
       <c r="G14">
-        <v>67.35711006399126</v>
+        <v>39.91790535912504</v>
       </c>
       <c r="H14">
-        <v>16.75019875810462</v>
+        <v>14.51274596890372</v>
       </c>
       <c r="I14">
-        <v>11.54297385225474</v>
+        <v>23.30190618239126</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.49488334393641</v>
+        <v>10.17348131792216</v>
       </c>
       <c r="M14">
-        <v>16.42896458027466</v>
+        <v>15.44982353942548</v>
       </c>
       <c r="N14">
-        <v>13.3263281476565</v>
+        <v>18.51474078371464</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.65912149249746</v>
+        <v>15.86580187401022</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.280791247088015</v>
+        <v>3.480278067271298</v>
       </c>
       <c r="E15">
-        <v>32.6194745338588</v>
+        <v>24.13849600925559</v>
       </c>
       <c r="F15">
-        <v>43.24926459465294</v>
+        <v>28.75422549098423</v>
       </c>
       <c r="G15">
-        <v>66.9274683186937</v>
+        <v>39.76746420808126</v>
       </c>
       <c r="H15">
-        <v>16.64406712091736</v>
+        <v>14.49658773272004</v>
       </c>
       <c r="I15">
-        <v>11.60138674357833</v>
+        <v>23.31943391682811</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.42416829424596</v>
+        <v>10.15797875463306</v>
       </c>
       <c r="M15">
-        <v>16.33829148101185</v>
+        <v>15.43261092128092</v>
       </c>
       <c r="N15">
-        <v>13.32976752233156</v>
+        <v>18.51738141202592</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.01044964764588</v>
+        <v>15.67228678046053</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.193370038815098</v>
+        <v>3.492886670450413</v>
       </c>
       <c r="E16">
-        <v>31.71126714740405</v>
+        <v>23.80077723694764</v>
       </c>
       <c r="F16">
-        <v>41.65561808775899</v>
+        <v>28.30621929137024</v>
       </c>
       <c r="G16">
-        <v>64.44535222414024</v>
+        <v>38.89820761595607</v>
       </c>
       <c r="H16">
-        <v>16.03116971460966</v>
+        <v>14.40501811385308</v>
       </c>
       <c r="I16">
-        <v>11.93773518794871</v>
+        <v>23.42129056741025</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.01352220899446</v>
+        <v>10.069209396384</v>
       </c>
       <c r="M16">
-        <v>15.81102660505637</v>
+        <v>15.33425762943078</v>
       </c>
       <c r="N16">
-        <v>13.35094002107737</v>
+        <v>18.53314855740237</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.60326934624395</v>
+        <v>15.55289968469666</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.139813454675867</v>
+        <v>3.500838944749183</v>
       </c>
       <c r="E17">
-        <v>31.1465255681682</v>
+        <v>23.5906389120503</v>
       </c>
       <c r="F17">
-        <v>40.66564737755065</v>
+        <v>28.03054303251019</v>
       </c>
       <c r="G17">
-        <v>62.90401461262902</v>
+        <v>38.35885535689354</v>
       </c>
       <c r="H17">
-        <v>15.6507979658302</v>
+        <v>14.34978261916836</v>
       </c>
       <c r="I17">
-        <v>12.14554554506094</v>
+        <v>23.48503902350671</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.75669314894402</v>
+        <v>10.01483887974727</v>
       </c>
       <c r="M17">
-        <v>15.480652950948</v>
+        <v>15.27419917273433</v>
       </c>
       <c r="N17">
-        <v>13.36522125778258</v>
+        <v>18.54338849157248</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.36564328285979</v>
+        <v>15.48400782066714</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.109013332791219</v>
+        <v>3.505492497013754</v>
       </c>
       <c r="E18">
-        <v>30.81884532539217</v>
+        <v>23.46871069509778</v>
       </c>
       <c r="F18">
-        <v>40.09153560855614</v>
+        <v>27.87173887043233</v>
       </c>
       <c r="G18">
-        <v>62.01033876596328</v>
+        <v>38.04651126087594</v>
       </c>
       <c r="H18">
-        <v>15.43034091502308</v>
+        <v>14.31836700915457</v>
       </c>
       <c r="I18">
-        <v>12.26562871011969</v>
+        <v>23.52217047800137</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.60713453072944</v>
+        <v>9.983608006326877</v>
       </c>
       <c r="M18">
-        <v>15.28805834675328</v>
+        <v>15.23976667009438</v>
       </c>
       <c r="N18">
-        <v>13.37390536859669</v>
+        <v>18.54948706019533</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.2845958422395</v>
+        <v>15.46064607546937</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.098583624429095</v>
+        <v>3.507081760994882</v>
       </c>
       <c r="E19">
-        <v>30.707402260166</v>
+        <v>23.42724791691172</v>
       </c>
       <c r="F19">
-        <v>39.8963270017482</v>
+        <v>27.81793524641418</v>
       </c>
       <c r="G19">
-        <v>61.70650374410066</v>
+        <v>37.94040375517175</v>
       </c>
       <c r="H19">
-        <v>15.35540390972911</v>
+        <v>14.30779194078218</v>
       </c>
       <c r="I19">
-        <v>12.30638384258015</v>
+        <v>23.53482251387069</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.5561780510924</v>
+        <v>9.973041847738797</v>
       </c>
       <c r="M19">
-        <v>15.222404451613</v>
+        <v>15.22812845601953</v>
       </c>
       <c r="N19">
-        <v>13.37692588032815</v>
+        <v>18.5515878301867</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.6469683659037</v>
+        <v>15.56563231616364</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.145513716710411</v>
+        <v>3.49998416636276</v>
       </c>
       <c r="E20">
-        <v>31.20693744296759</v>
+        <v>23.6131190095865</v>
       </c>
       <c r="F20">
-        <v>40.77151475109425</v>
+        <v>28.05991584407972</v>
       </c>
       <c r="G20">
-        <v>63.06882532254497</v>
+        <v>38.41649273426334</v>
       </c>
       <c r="H20">
-        <v>15.69146133287447</v>
+        <v>14.35562605763025</v>
       </c>
       <c r="I20">
-        <v>12.12336657662904</v>
+        <v>23.4782047852472</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.78422249061662</v>
+        <v>10.02062262894537</v>
       </c>
       <c r="M20">
-        <v>15.51608733778074</v>
+        <v>15.28058116492902</v>
       </c>
       <c r="N20">
-        <v>13.36365224482451</v>
+        <v>18.5422768278793</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.8237648487489</v>
+        <v>15.91553729716244</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.303404197912096</v>
+        <v>3.477090159440617</v>
       </c>
       <c r="E21">
-        <v>32.85167349210553</v>
+        <v>24.22475376870956</v>
       </c>
       <c r="F21">
-        <v>43.65706099566504</v>
+        <v>28.86958008071444</v>
       </c>
       <c r="G21">
-        <v>67.56279261027127</v>
+        <v>39.98991592080361</v>
       </c>
       <c r="H21">
-        <v>16.8010114043326</v>
+        <v>14.5205121112724</v>
       </c>
       <c r="I21">
-        <v>11.51499123465034</v>
+        <v>23.29352610491092</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.52869876323861</v>
+        <v>10.18091610551638</v>
       </c>
       <c r="M21">
-        <v>16.47231063510021</v>
+        <v>15.4580821722425</v>
       </c>
       <c r="N21">
-        <v>13.32470492705688</v>
+        <v>18.51348574684657</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.56303105753053</v>
+        <v>16.14174253265511</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.407145926563677</v>
+        <v>3.462841855912771</v>
       </c>
       <c r="E22">
-        <v>33.90279619354574</v>
+        <v>24.61451468189198</v>
       </c>
       <c r="F22">
-        <v>45.50509086075139</v>
+        <v>29.39521417732294</v>
       </c>
       <c r="G22">
-        <v>70.44285398965118</v>
+        <v>40.99697677455399</v>
       </c>
       <c r="H22">
-        <v>17.51278581471413</v>
+        <v>14.63123403285822</v>
       </c>
       <c r="I22">
-        <v>11.12202587716123</v>
+        <v>23.17694798551674</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.99962283963183</v>
+        <v>10.28584104612989</v>
       </c>
       <c r="M22">
-        <v>17.07505633655647</v>
+        <v>15.57488422003049</v>
       </c>
       <c r="N22">
-        <v>13.30354222481367</v>
+        <v>18.49652128366523</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.17116606748004</v>
+        <v>16.02126211892589</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.351699175060487</v>
+        <v>3.470380824233782</v>
       </c>
       <c r="E23">
-        <v>33.34387698327252</v>
+        <v>24.40742879726007</v>
       </c>
       <c r="F23">
-        <v>44.52200525811926</v>
+        <v>29.11506000500511</v>
       </c>
       <c r="G23">
-        <v>68.91057290300162</v>
+        <v>40.46154101495614</v>
       </c>
       <c r="H23">
-        <v>17.13403805012918</v>
+        <v>14.57187858879444</v>
       </c>
       <c r="I23">
-        <v>11.33134736194152</v>
+        <v>23.23879194138168</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.74967410278829</v>
+        <v>10.22983553543513</v>
       </c>
       <c r="M23">
-        <v>16.75535404402567</v>
+        <v>15.51248163557305</v>
       </c>
       <c r="N23">
-        <v>13.31443942533476</v>
+        <v>18.50540642543623</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.627223049849</v>
+        <v>15.55987668109623</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.142936663892272</v>
+        <v>3.500370357301628</v>
       </c>
       <c r="E24">
-        <v>31.17963460332274</v>
+        <v>23.60295923044242</v>
       </c>
       <c r="F24">
-        <v>40.72366761670864</v>
+        <v>28.04663735913042</v>
       </c>
       <c r="G24">
-        <v>62.9943379549934</v>
+        <v>38.39044189837084</v>
       </c>
       <c r="H24">
-        <v>15.67308297329988</v>
+        <v>14.3529831778883</v>
       </c>
       <c r="I24">
-        <v>12.133391783933</v>
+        <v>23.48129304399888</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.77178241396742</v>
+        <v>10.01800770809114</v>
       </c>
       <c r="M24">
-        <v>15.50007573922479</v>
+        <v>15.27769556533635</v>
       </c>
       <c r="N24">
-        <v>13.36436012151947</v>
+        <v>18.54277875219618</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.89254782250288</v>
+        <v>15.0539717861268</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.917711047176991</v>
+        <v>3.535760074752475</v>
       </c>
       <c r="E25">
-        <v>28.73565882939529</v>
+        <v>22.69496595931887</v>
       </c>
       <c r="F25">
-        <v>36.44515292966973</v>
+        <v>26.88582385447188</v>
       </c>
       <c r="G25">
-        <v>56.337430537095</v>
+        <v>36.07707473395003</v>
       </c>
       <c r="H25">
-        <v>14.06406952476872</v>
+        <v>14.13052118578258</v>
       </c>
       <c r="I25">
-        <v>13.02002327263349</v>
+        <v>23.76066215102051</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.64641614825973</v>
+        <v>9.791233184519633</v>
       </c>
       <c r="M25">
-        <v>14.04740639537883</v>
+        <v>15.0288203080906</v>
       </c>
       <c r="N25">
-        <v>13.43610657464161</v>
+        <v>18.59107908638953</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_90/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_90/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.67714804971649</v>
+        <v>15.59006030255802</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.564411215264732</v>
+        <v>1.896097274535572</v>
       </c>
       <c r="E2">
-        <v>21.99485615319196</v>
+        <v>26.83686002592379</v>
       </c>
       <c r="F2">
-        <v>26.03181424364242</v>
+        <v>33.12216427750094</v>
       </c>
       <c r="G2">
-        <v>34.32052207884342</v>
+        <v>51.17214234591157</v>
       </c>
       <c r="H2">
-        <v>13.97939580066629</v>
+        <v>13.06749669621544</v>
       </c>
       <c r="I2">
-        <v>23.98181680477459</v>
+        <v>13.69339367764653</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.626826924212519</v>
+        <v>9.753802776879771</v>
       </c>
       <c r="M2">
-        <v>14.85035265206367</v>
+        <v>12.88968761844974</v>
       </c>
       <c r="N2">
-        <v>18.63355544373744</v>
+        <v>13.50373473176429</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.4205579541273</v>
+        <v>14.65167933924487</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.585436484294257</v>
+        <v>1.938150606068384</v>
       </c>
       <c r="E3">
-        <v>21.50245760165358</v>
+        <v>25.48736653993157</v>
       </c>
       <c r="F3">
-        <v>25.45776901868672</v>
+        <v>30.84371091341583</v>
       </c>
       <c r="G3">
-        <v>33.10597213900947</v>
+        <v>47.49769344554256</v>
       </c>
       <c r="H3">
-        <v>13.88530575374864</v>
+        <v>12.38397682666407</v>
       </c>
       <c r="I3">
-        <v>24.14141469297891</v>
+        <v>14.1636336742034</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.517564374321589</v>
+        <v>9.107578671634126</v>
       </c>
       <c r="M3">
-        <v>14.73288718484196</v>
+        <v>12.10507455097827</v>
       </c>
       <c r="N3">
-        <v>18.66667591949177</v>
+        <v>13.55850241836738</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.26293407330604</v>
+        <v>14.04869572458393</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.599136223565167</v>
+        <v>1.967006065270846</v>
       </c>
       <c r="E4">
-        <v>21.19193451841554</v>
+        <v>24.62818394456167</v>
       </c>
       <c r="F4">
-        <v>25.10914029813316</v>
+        <v>29.4614754354358</v>
       </c>
       <c r="G4">
-        <v>32.35184039402914</v>
+        <v>45.15457183687717</v>
       </c>
       <c r="H4">
-        <v>13.83176848321417</v>
+        <v>11.96102054431196</v>
       </c>
       <c r="I4">
-        <v>24.24422785080581</v>
+        <v>14.45956518243558</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.451725828301702</v>
+        <v>8.690060471326678</v>
       </c>
       <c r="M4">
-        <v>14.66264586337133</v>
+        <v>11.70493158511982</v>
       </c>
       <c r="N4">
-        <v>18.68915693536854</v>
+        <v>13.59644067651863</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.19876283830352</v>
+        <v>13.79637119766592</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.604917202213941</v>
+        <v>1.979448267797907</v>
       </c>
       <c r="E5">
-        <v>21.06344111101905</v>
+        <v>24.27048119806014</v>
       </c>
       <c r="F5">
-        <v>24.96826872432398</v>
+        <v>28.88818788855369</v>
       </c>
       <c r="G5">
-        <v>32.04299286122564</v>
+        <v>44.1996307159444</v>
       </c>
       <c r="H5">
-        <v>13.81103386781345</v>
+        <v>11.78799881968146</v>
       </c>
       <c r="I5">
-        <v>24.28734038328838</v>
+        <v>14.58202055510157</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.425237976121394</v>
+        <v>8.514660251037611</v>
       </c>
       <c r="M5">
-        <v>14.63451998932385</v>
+        <v>11.53906073790165</v>
       </c>
       <c r="N5">
-        <v>18.69885858003892</v>
+        <v>13.6129707549691</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.18811337404117</v>
+        <v>13.75407892769329</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.605889088541452</v>
+        <v>1.981553449587612</v>
       </c>
       <c r="E6">
-        <v>21.04199016302699</v>
+        <v>24.21063162489916</v>
       </c>
       <c r="F6">
-        <v>24.94495625618017</v>
+        <v>28.79239793522161</v>
       </c>
       <c r="G6">
-        <v>31.99163411798916</v>
+        <v>44.03983989917236</v>
       </c>
       <c r="H6">
-        <v>13.80765673527283</v>
+        <v>11.75923407672316</v>
       </c>
       <c r="I6">
-        <v>24.29457269151644</v>
+        <v>14.60246800380707</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.420861136994764</v>
+        <v>8.48521646702423</v>
       </c>
       <c r="M6">
-        <v>14.62988049022835</v>
+        <v>11.51135428734752</v>
       </c>
       <c r="N6">
-        <v>18.70050220434124</v>
+        <v>13.61577978055867</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.26206827964193</v>
+        <v>14.04531931253801</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.599213385884497</v>
+        <v>1.96717119510936</v>
       </c>
       <c r="E7">
-        <v>21.19020937284005</v>
+        <v>24.62339033497268</v>
       </c>
       <c r="F7">
-        <v>25.10723529804362</v>
+        <v>29.45378404895924</v>
       </c>
       <c r="G7">
-        <v>32.34768057895551</v>
+        <v>45.14177530452613</v>
       </c>
       <c r="H7">
-        <v>13.83148444553928</v>
+        <v>11.95868955872644</v>
       </c>
       <c r="I7">
-        <v>24.24480435610602</v>
+        <v>14.46120905866617</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.451367183377206</v>
+        <v>8.687716305320095</v>
       </c>
       <c r="M7">
-        <v>14.66226449972178</v>
+        <v>11.70270570392251</v>
       </c>
       <c r="N7">
-        <v>18.68928558546616</v>
+        <v>13.59665929304836</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.58873988393457</v>
+        <v>15.27214260883273</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.571496448864896</v>
+        <v>1.909915710012169</v>
       </c>
       <c r="E8">
-        <v>21.82683850977338</v>
+        <v>26.37795259539827</v>
       </c>
       <c r="F8">
-        <v>25.83322579322299</v>
+        <v>32.31832425626352</v>
       </c>
       <c r="G8">
-        <v>33.90382034464381</v>
+        <v>49.92325546456758</v>
       </c>
       <c r="H8">
-        <v>13.94608583437634</v>
+        <v>12.83258050032101</v>
       </c>
       <c r="I8">
-        <v>24.03584797557832</v>
+        <v>13.85406797159351</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.588910806094683</v>
+        <v>9.535258575772037</v>
       </c>
       <c r="M8">
-        <v>14.80947472792392</v>
+        <v>12.60555440709546</v>
       </c>
       <c r="N8">
-        <v>18.64453086573225</v>
+        <v>13.52171539844559</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.22524992806816</v>
+        <v>17.46103981081743</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.523434668454282</v>
+        <v>1.993795933669483</v>
       </c>
       <c r="E9">
-        <v>23.00594521577864</v>
+        <v>29.57411619187215</v>
       </c>
       <c r="F9">
-        <v>27.27728792100064</v>
+        <v>37.9122616374481</v>
       </c>
       <c r="G9">
-        <v>36.86570156089288</v>
+        <v>58.61926403940354</v>
       </c>
       <c r="H9">
-        <v>14.20354939510641</v>
+        <v>14.59443075035623</v>
       </c>
       <c r="I9">
-        <v>23.66416548309616</v>
+        <v>12.71831003051029</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.867297648084158</v>
+        <v>11.03523875912721</v>
       </c>
       <c r="M9">
-        <v>15.11197979878792</v>
+        <v>14.55023064948616</v>
       </c>
       <c r="N9">
-        <v>18.57373803279007</v>
+        <v>13.4095995193604</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.68587768091406</v>
+        <v>19.0564496032304</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.49199006615908</v>
+        <v>2.199483397116083</v>
       </c>
       <c r="E10">
-        <v>23.82460970414975</v>
+        <v>31.7753257841892</v>
       </c>
       <c r="F10">
-        <v>28.33763819945642</v>
+        <v>41.76795543072803</v>
       </c>
       <c r="G10">
-        <v>38.95945525753248</v>
+        <v>64.62028249804523</v>
       </c>
       <c r="H10">
-        <v>14.41136823211733</v>
+        <v>16.07435026097057</v>
       </c>
       <c r="I10">
-        <v>23.41407936594046</v>
+        <v>11.91409680340819</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.07541837877805</v>
+        <v>12.04258153411576</v>
       </c>
       <c r="M10">
-        <v>15.34112515466744</v>
+        <v>15.84837821013417</v>
       </c>
       <c r="N10">
-        <v>18.53200838153947</v>
+        <v>13.34937447976518</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.89300093449207</v>
+        <v>19.74926033637419</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.478532114400577</v>
+        <v>2.293149683838644</v>
       </c>
       <c r="E11">
-        <v>24.18569444438903</v>
+        <v>32.74651380352525</v>
       </c>
       <c r="F11">
-        <v>28.81729983696272</v>
+        <v>43.47235679322433</v>
       </c>
       <c r="G11">
-        <v>39.88916478503279</v>
+        <v>67.27502454730288</v>
       </c>
       <c r="H11">
-        <v>14.50965211245478</v>
+        <v>16.72992077795881</v>
       </c>
       <c r="I11">
-        <v>23.30525256332878</v>
+        <v>11.55413806084799</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.17051655236447</v>
+        <v>12.48138113283141</v>
       </c>
       <c r="M11">
-        <v>15.44653092193184</v>
+        <v>16.4116544834574</v>
       </c>
       <c r="N11">
-        <v>18.51524329869608</v>
+        <v>13.32698016533679</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.97101418605263</v>
+        <v>20.00648449922559</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.473558353039623</v>
+        <v>2.328706250418153</v>
       </c>
       <c r="E12">
-        <v>24.32072297198254</v>
+        <v>33.11017003201613</v>
       </c>
       <c r="F12">
-        <v>28.99834659091529</v>
+        <v>44.11122455444926</v>
       </c>
       <c r="G12">
-        <v>40.23760098312565</v>
+        <v>68.2704412314577</v>
       </c>
       <c r="H12">
-        <v>14.54738019868714</v>
+        <v>16.97585219832389</v>
       </c>
       <c r="I12">
-        <v>23.26474930735136</v>
+        <v>11.41862876271739</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.20655863722761</v>
+        <v>12.64485262964413</v>
       </c>
       <c r="M12">
-        <v>15.48658448096738</v>
+        <v>16.62113624090298</v>
       </c>
       <c r="N12">
-        <v>18.50921257804604</v>
+        <v>13.3192350340388</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.95423241673411</v>
+        <v>19.95131309274677</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.474624081822396</v>
+        <v>2.321043336845215</v>
       </c>
       <c r="E13">
-        <v>24.29171921872858</v>
+        <v>33.03202866233569</v>
       </c>
       <c r="F13">
-        <v>28.9593843030359</v>
+        <v>43.973913996714</v>
       </c>
       <c r="G13">
-        <v>40.16272540306161</v>
+        <v>68.05648300360171</v>
       </c>
       <c r="H13">
-        <v>14.53923255922707</v>
+        <v>16.92298561492218</v>
       </c>
       <c r="I13">
-        <v>23.27344100867624</v>
+        <v>11.44777823094287</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.19879545250162</v>
+        <v>12.60976405219331</v>
       </c>
       <c r="M13">
-        <v>15.47795252520961</v>
+        <v>16.57618868201227</v>
       </c>
       <c r="N13">
-        <v>18.51049728250796</v>
+        <v>13.32087014738713</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.89942794533792</v>
+        <v>19.77052450646489</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.478120460967675</v>
+        <v>2.296072735235559</v>
       </c>
       <c r="E14">
-        <v>24.19683794174504</v>
+        <v>32.77651287664708</v>
       </c>
       <c r="F14">
-        <v>28.83220761892281</v>
+        <v>43.52504444783777</v>
       </c>
       <c r="G14">
-        <v>39.91790535912504</v>
+        <v>67.35711006399136</v>
       </c>
       <c r="H14">
-        <v>14.51274596890372</v>
+        <v>16.75019875810464</v>
       </c>
       <c r="I14">
-        <v>23.30190618239126</v>
+        <v>11.54297385225475</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.17348131792216</v>
+        <v>12.49488334393641</v>
       </c>
       <c r="M14">
-        <v>15.44982353942548</v>
+        <v>16.42896458027466</v>
       </c>
       <c r="N14">
-        <v>18.51474078371464</v>
+        <v>13.3263281476565</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.86580187401022</v>
+        <v>19.65912149249745</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.480278067271298</v>
+        <v>2.280791247087788</v>
       </c>
       <c r="E15">
-        <v>24.13849600925559</v>
+        <v>32.61947453385882</v>
       </c>
       <c r="F15">
-        <v>28.75422549098423</v>
+        <v>43.24926459465297</v>
       </c>
       <c r="G15">
-        <v>39.76746420808126</v>
+        <v>66.92746831869367</v>
       </c>
       <c r="H15">
-        <v>14.49658773272004</v>
+        <v>16.64406712091733</v>
       </c>
       <c r="I15">
-        <v>23.31943391682811</v>
+        <v>11.60138674357844</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.15797875463306</v>
+        <v>12.42416829424594</v>
       </c>
       <c r="M15">
-        <v>15.43261092128092</v>
+        <v>16.33829148101184</v>
       </c>
       <c r="N15">
-        <v>18.51738141202592</v>
+        <v>13.32976752233157</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.67228678046053</v>
+        <v>19.01044964764583</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.492886670450413</v>
+        <v>2.193370038815093</v>
       </c>
       <c r="E16">
-        <v>23.80077723694764</v>
+        <v>31.71126714740419</v>
       </c>
       <c r="F16">
-        <v>28.30621929137024</v>
+        <v>41.65561808775908</v>
       </c>
       <c r="G16">
-        <v>38.89820761595607</v>
+        <v>64.44535222414036</v>
       </c>
       <c r="H16">
-        <v>14.40501811385308</v>
+        <v>16.0311697146097</v>
       </c>
       <c r="I16">
-        <v>23.42129056741025</v>
+        <v>11.93773518794881</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.069209396384</v>
+        <v>12.01352220899451</v>
       </c>
       <c r="M16">
-        <v>15.33425762943078</v>
+        <v>15.81102660505636</v>
       </c>
       <c r="N16">
-        <v>18.53314855740237</v>
+        <v>13.35094002107737</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.55289968469666</v>
+        <v>18.60326934624399</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.500838944749183</v>
+        <v>2.139813454675921</v>
       </c>
       <c r="E17">
-        <v>23.5906389120503</v>
+        <v>31.14652556816813</v>
       </c>
       <c r="F17">
-        <v>28.03054303251019</v>
+        <v>40.66564737755073</v>
       </c>
       <c r="G17">
-        <v>38.35885535689354</v>
+        <v>62.90401461262915</v>
       </c>
       <c r="H17">
-        <v>14.34978261916836</v>
+        <v>15.65079796583025</v>
       </c>
       <c r="I17">
-        <v>23.48503902350671</v>
+        <v>12.14554554506071</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.01483887974727</v>
+        <v>11.75669314894401</v>
       </c>
       <c r="M17">
-        <v>15.27419917273433</v>
+        <v>15.48065295094803</v>
       </c>
       <c r="N17">
-        <v>18.54338849157248</v>
+        <v>13.36522125778247</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.48400782066714</v>
+        <v>18.36564328285979</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.505492497013754</v>
+        <v>2.109013332791116</v>
       </c>
       <c r="E18">
-        <v>23.46871069509778</v>
+        <v>30.81884532539213</v>
       </c>
       <c r="F18">
-        <v>27.87173887043233</v>
+        <v>40.09153560855613</v>
       </c>
       <c r="G18">
-        <v>38.04651126087594</v>
+        <v>62.0103387659632</v>
       </c>
       <c r="H18">
-        <v>14.31836700915457</v>
+        <v>15.43034091502309</v>
       </c>
       <c r="I18">
-        <v>23.52217047800137</v>
+        <v>12.2656287101197</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.983608006326877</v>
+        <v>11.60713453072943</v>
       </c>
       <c r="M18">
-        <v>15.23976667009438</v>
+        <v>15.28805834675327</v>
       </c>
       <c r="N18">
-        <v>18.54948706019533</v>
+        <v>13.37390536859668</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.46064607546937</v>
+        <v>18.2845958422395</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.507081760994882</v>
+        <v>2.098583624429104</v>
       </c>
       <c r="E19">
-        <v>23.42724791691172</v>
+        <v>30.70740226016618</v>
       </c>
       <c r="F19">
-        <v>27.81793524641418</v>
+        <v>39.89632700174834</v>
       </c>
       <c r="G19">
-        <v>37.94040375517175</v>
+        <v>61.70650374410089</v>
       </c>
       <c r="H19">
-        <v>14.30779194078218</v>
+        <v>15.35540390972915</v>
       </c>
       <c r="I19">
-        <v>23.53482251387069</v>
+        <v>12.3063838425801</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.973041847738797</v>
+        <v>11.55617805109245</v>
       </c>
       <c r="M19">
-        <v>15.22812845601953</v>
+        <v>15.22240445161301</v>
       </c>
       <c r="N19">
-        <v>18.5515878301867</v>
+        <v>13.37692588032808</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.56563231616364</v>
+        <v>18.6469683659037</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.49998416636276</v>
+        <v>2.145513716710292</v>
       </c>
       <c r="E20">
-        <v>23.6131190095865</v>
+        <v>31.20693744296761</v>
       </c>
       <c r="F20">
-        <v>28.05991584407972</v>
+        <v>40.77151475109426</v>
       </c>
       <c r="G20">
-        <v>38.41649273426334</v>
+        <v>63.06882532254494</v>
       </c>
       <c r="H20">
-        <v>14.35562605763025</v>
+        <v>15.69146133287447</v>
       </c>
       <c r="I20">
-        <v>23.4782047852472</v>
+        <v>12.12336657662908</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.02062262894537</v>
+        <v>11.78422249061661</v>
       </c>
       <c r="M20">
-        <v>15.28058116492902</v>
+        <v>15.5160873377807</v>
       </c>
       <c r="N20">
-        <v>18.5422768278793</v>
+        <v>13.3636522448245</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.91553729716244</v>
+        <v>19.82376484874893</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.477090159440617</v>
+        <v>2.303404197911977</v>
       </c>
       <c r="E21">
-        <v>24.22475376870956</v>
+        <v>32.85167349210547</v>
       </c>
       <c r="F21">
-        <v>28.86958008071444</v>
+        <v>43.65706099566507</v>
       </c>
       <c r="G21">
-        <v>39.98991592080361</v>
+        <v>67.56279261027132</v>
       </c>
       <c r="H21">
-        <v>14.5205121112724</v>
+        <v>16.80101140433263</v>
       </c>
       <c r="I21">
-        <v>23.29352610491092</v>
+        <v>11.51499123465025</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.18091610551638</v>
+        <v>12.52869876323859</v>
       </c>
       <c r="M21">
-        <v>15.4580821722425</v>
+        <v>16.47231063510025</v>
       </c>
       <c r="N21">
-        <v>18.51348574684657</v>
+        <v>13.32470492705684</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.14174253265511</v>
+        <v>20.56303105753058</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.462841855912771</v>
+        <v>2.407145926563539</v>
       </c>
       <c r="E22">
-        <v>24.61451468189198</v>
+        <v>33.9027961935458</v>
       </c>
       <c r="F22">
-        <v>29.39521417732294</v>
+        <v>45.50509086075149</v>
       </c>
       <c r="G22">
-        <v>40.99697677455399</v>
+        <v>70.44285398965127</v>
       </c>
       <c r="H22">
-        <v>14.63123403285822</v>
+        <v>17.51278581471416</v>
       </c>
       <c r="I22">
-        <v>23.17694798551674</v>
+        <v>11.1220258771612</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.28584104612989</v>
+        <v>12.99962283963179</v>
       </c>
       <c r="M22">
-        <v>15.57488422003049</v>
+        <v>17.07505633655649</v>
       </c>
       <c r="N22">
-        <v>18.49652128366523</v>
+        <v>13.30354222481367</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.02126211892589</v>
+        <v>20.17116606748005</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.470380824233782</v>
+        <v>2.351699175060483</v>
       </c>
       <c r="E23">
-        <v>24.40742879726007</v>
+        <v>33.34387698327261</v>
       </c>
       <c r="F23">
-        <v>29.11506000500511</v>
+        <v>44.52200525811929</v>
       </c>
       <c r="G23">
-        <v>40.46154101495614</v>
+        <v>68.91057290300168</v>
       </c>
       <c r="H23">
-        <v>14.57187858879444</v>
+        <v>17.13403805012917</v>
       </c>
       <c r="I23">
-        <v>23.23879194138168</v>
+        <v>11.33134736194152</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.22983553543513</v>
+        <v>12.74967410278825</v>
       </c>
       <c r="M23">
-        <v>15.51248163557305</v>
+        <v>16.75535404402564</v>
       </c>
       <c r="N23">
-        <v>18.50540642543623</v>
+        <v>13.31443942533478</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.55987668109623</v>
+        <v>18.627223049849</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.500370357301628</v>
+        <v>2.142936663892161</v>
       </c>
       <c r="E24">
-        <v>23.60295923044242</v>
+        <v>31.17963460332264</v>
       </c>
       <c r="F24">
-        <v>28.04663735913042</v>
+        <v>40.72366761670862</v>
       </c>
       <c r="G24">
-        <v>38.39044189837084</v>
+        <v>62.99433795499327</v>
       </c>
       <c r="H24">
-        <v>14.3529831778883</v>
+        <v>15.67308297329988</v>
       </c>
       <c r="I24">
-        <v>23.48129304399888</v>
+        <v>12.13339178393293</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.01800770809114</v>
+        <v>11.77178241396739</v>
       </c>
       <c r="M24">
-        <v>15.27769556533635</v>
+        <v>15.50007573922479</v>
       </c>
       <c r="N24">
-        <v>18.54277875219618</v>
+        <v>13.36436012151944</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.0539717861268</v>
+        <v>16.89254782250288</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.535760074752475</v>
+        <v>1.917711047177048</v>
       </c>
       <c r="E25">
-        <v>22.69496595931887</v>
+        <v>28.73565882939521</v>
       </c>
       <c r="F25">
-        <v>26.88582385447188</v>
+        <v>36.44515292966967</v>
       </c>
       <c r="G25">
-        <v>36.07707473395003</v>
+        <v>56.33743053709502</v>
       </c>
       <c r="H25">
-        <v>14.13052118578258</v>
+        <v>14.06406952476873</v>
       </c>
       <c r="I25">
-        <v>23.76066215102051</v>
+        <v>13.02002327263355</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.791233184519633</v>
+        <v>10.64641614825973</v>
       </c>
       <c r="M25">
-        <v>15.0288203080906</v>
+        <v>14.04740639537881</v>
       </c>
       <c r="N25">
-        <v>18.59107908638953</v>
+        <v>13.4361065746416</v>
       </c>
       <c r="O25">
         <v>0</v>
